--- a/data/zenodo_ivan/trade/CHE_trd_diesel.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_diesel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E098E6-67FF-D74C-BF54-DD2A5627C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9354253E-4F04-DF4A-9A82-3354B097C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="58">
   <si>
     <t>Name:</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>co2_factor</t>
-  </si>
-  <si>
-    <t>max_export_share</t>
-  </si>
-  <si>
-    <t>max_import_share</t>
   </si>
   <si>
     <t>actual_export</t>
@@ -643,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -667,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -729,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -746,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -760,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -774,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -788,10 +782,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -802,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
@@ -816,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
@@ -828,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -842,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -851,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -859,13 +853,22 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -873,13 +876,34 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>1990</v>
+      </c>
+      <c r="G15">
+        <v>340.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -887,22 +911,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>1991</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -910,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G17">
-        <v>340.8</v>
+        <v>511.2</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -945,34 +981,34 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>511.2</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -980,34 +1016,34 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G19">
-        <v>511.2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1015,34 +1051,34 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G20">
-        <v>511.2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1050,34 +1086,34 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1085,34 +1121,34 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1120,34 +1156,34 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1155,34 +1191,34 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,34 +1226,34 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,34 +1261,34 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1260,34 +1296,34 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1295,34 +1331,34 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>383.4</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1330,34 +1366,34 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>170.4</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1365,34 +1401,34 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G30">
-        <v>383.4</v>
+        <v>85.2</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1400,34 +1436,34 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G31">
-        <v>170.4</v>
+        <v>127.8</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1435,34 +1471,34 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G32">
-        <v>85.2</v>
+        <v>724.2</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1470,34 +1506,34 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G33">
-        <v>127.8</v>
+        <v>298.2</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1505,34 +1541,34 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G34">
-        <v>724.2</v>
+        <v>255.6</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1540,34 +1576,34 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G35">
-        <v>298.2</v>
+        <v>894.6</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1575,34 +1611,34 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G36">
-        <v>255.6</v>
+        <v>1618.8</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1610,34 +1646,34 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G37">
-        <v>894.6</v>
+        <v>2385.6</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1645,34 +1681,34 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G38">
-        <v>1618.8</v>
+        <v>2811.6</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1680,34 +1716,34 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G39">
-        <v>2385.6</v>
+        <v>2726.4</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1715,34 +1751,34 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G40">
-        <v>2811.6</v>
+        <v>1022.4</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1750,34 +1786,34 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G41">
-        <v>2726.4</v>
+        <v>1278</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1785,34 +1821,34 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G42">
-        <v>1022.4</v>
+        <v>1192.8</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1820,34 +1856,34 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G43">
-        <v>1278</v>
+        <v>1243.71</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1855,69 +1891,52 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44">
-        <v>2017</v>
-      </c>
-      <c r="G44">
-        <v>1192.8</v>
-      </c>
-      <c r="H44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" t="s">
-        <v>43</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G45">
-        <v>1243.71</v>
+        <v>233064.6</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1925,52 +1944,69 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>2019</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>1991</v>
+      </c>
+      <c r="G46">
+        <v>197962.2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G47">
-        <v>233064.6</v>
+        <v>204820.8</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1978,34 +2014,34 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G48">
-        <v>197962.2</v>
+        <v>157151.4</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2013,34 +2049,34 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G49">
-        <v>204820.8</v>
+        <v>177769.8</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2048,34 +2084,34 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G50">
-        <v>157151.4</v>
+        <v>150846.6</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2083,34 +2119,34 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G51">
-        <v>177769.8</v>
+        <v>152678.39999999999</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2118,34 +2154,34 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G52">
-        <v>150846.6</v>
+        <v>184159.8</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2153,34 +2189,34 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G53">
-        <v>152678.39999999999</v>
+        <v>191018.4</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2188,34 +2224,34 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G54">
-        <v>184159.8</v>
+        <v>150548.4</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2223,34 +2259,34 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G55">
-        <v>191018.4</v>
+        <v>148120.20000000001</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2258,34 +2294,34 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G56">
-        <v>150548.4</v>
+        <v>195150.6</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2293,34 +2329,34 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G57">
-        <v>148120.20000000001</v>
+        <v>180709.2</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2328,34 +2364,34 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G58">
-        <v>195150.6</v>
+        <v>171592.8</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2363,34 +2399,34 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G59">
-        <v>180709.2</v>
+        <v>163200.6</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2398,34 +2434,34 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G60">
-        <v>171592.8</v>
+        <v>185182.2</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2433,34 +2469,34 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G61">
-        <v>163200.6</v>
+        <v>177216</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2468,34 +2504,34 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G62">
-        <v>185182.2</v>
+        <v>134445.6</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2503,34 +2539,34 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G63">
-        <v>177216</v>
+        <v>169335</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2538,34 +2574,34 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G64">
-        <v>134445.6</v>
+        <v>194043</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2573,34 +2609,34 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G65">
-        <v>169335</v>
+        <v>149526</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2608,34 +2644,34 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G66">
-        <v>194043</v>
+        <v>140622.6</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2643,34 +2679,34 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G67">
-        <v>149526</v>
+        <v>180666.6</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2678,34 +2714,34 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G68">
-        <v>140622.6</v>
+        <v>169122</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2713,34 +2749,34 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G69">
-        <v>180666.6</v>
+        <v>125073.60000000001</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2748,34 +2784,34 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G70">
-        <v>169122</v>
+        <v>173211.6</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2783,34 +2819,34 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G71">
-        <v>125073.60000000001</v>
+        <v>162007.79999999999</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2818,34 +2854,34 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G72">
-        <v>173211.6</v>
+        <v>162476.4</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2853,34 +2889,34 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G73">
-        <v>162007.79999999999</v>
+        <v>123604.41</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2888,69 +2924,34 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
       </c>
       <c r="E74">
-        <v>2017</v>
-      </c>
-      <c r="G74">
-        <v>162476.4</v>
-      </c>
-      <c r="H74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I74" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L74" t="s">
-        <v>43</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75">
-        <v>2018</v>
-      </c>
-      <c r="G75">
-        <v>123604.41</v>
-      </c>
-      <c r="H75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L75" t="s">
-        <v>43</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2958,34 +2959,33 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
       </c>
       <c r="E76">
-        <v>2019</v>
-      </c>
-      <c r="K76" s="2"/>
+        <v>1991</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2993,16 +2993,16 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3010,16 +3010,16 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3027,16 +3027,31 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>1995</v>
+      </c>
+      <c r="G80">
+        <v>1.01</v>
+      </c>
+      <c r="H80" t="s">
         <v>45</v>
       </c>
-      <c r="C80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80">
-        <v>1993</v>
+      <c r="J80" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L80" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3044,16 +3059,16 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3061,31 +3076,16 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1995</v>
-      </c>
-      <c r="G82">
-        <v>1.01</v>
-      </c>
-      <c r="H82" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" t="s">
-        <v>58</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L82" t="s">
-        <v>59</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3093,16 +3093,31 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1998</v>
+      </c>
+      <c r="G83">
+        <v>0.91</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L83" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3110,16 +3125,16 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3127,31 +3142,31 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G85">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3159,16 +3174,16 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3176,31 +3191,31 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G87">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="H87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3208,16 +3223,16 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3225,31 +3240,31 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
         <v>17</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G89">
-        <v>0.93</v>
+        <v>1.37</v>
       </c>
       <c r="H89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3257,16 +3272,16 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3274,31 +3289,31 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G91">
-        <v>1.37</v>
-      </c>
-      <c r="H91" t="s">
-        <v>51</v>
+        <v>1.36</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="J91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3306,16 +3321,16 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3323,31 +3338,31 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G93">
-        <v>1.36</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>52</v>
+        <v>1.52</v>
+      </c>
+      <c r="H93" t="s">
+        <v>51</v>
       </c>
       <c r="J93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3355,16 +3370,16 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3372,31 +3387,31 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G95">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="H95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3404,16 +3419,16 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3421,31 +3436,31 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97" t="s">
         <v>17</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G97">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="H97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3453,16 +3468,16 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3470,31 +3485,31 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G99">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="H99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3502,16 +3517,16 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3519,31 +3534,31 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G101">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="J101" t="s">
         <v>56</v>
       </c>
-      <c r="J101" t="s">
-        <v>58</v>
-      </c>
       <c r="K101" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3551,16 +3566,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3568,31 +3583,16 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="E103">
-        <v>2016</v>
-      </c>
-      <c r="G103">
-        <v>1.46</v>
-      </c>
-      <c r="H103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J103" t="s">
-        <v>58</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L103" t="s">
-        <v>59</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3600,67 +3600,33 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
       </c>
       <c r="E104">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L305" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K82" r:id="rId1" xr:uid="{6F125911-13A5-A040-A9C2-2E5531CB51C2}"/>
-    <hyperlink ref="K85" r:id="rId2" xr:uid="{26D2A3F1-A9F3-B94B-80A4-1FC52B0A9381}"/>
-    <hyperlink ref="K87" r:id="rId3" xr:uid="{A8B08486-B742-1C49-9B5F-CC1014D0C0D3}"/>
-    <hyperlink ref="K89" r:id="rId4" xr:uid="{15570098-FC7D-E942-8E7A-0E4C2E03993E}"/>
-    <hyperlink ref="K91" r:id="rId5" xr:uid="{0848FAC6-20C0-0041-BF42-54D04239A8EC}"/>
-    <hyperlink ref="K93" r:id="rId6" xr:uid="{A2A0E688-1AC6-144C-9B19-B8200B9F19CC}"/>
-    <hyperlink ref="K95" r:id="rId7" xr:uid="{743ED0BB-638F-6B41-B6A5-65A68E4BBD97}"/>
-    <hyperlink ref="K97" r:id="rId8" xr:uid="{7F3686DB-0ED7-DB4C-8B37-C23A39CE0B2F}"/>
-    <hyperlink ref="K99" r:id="rId9" xr:uid="{444EB835-7F82-FA45-A2AD-647FDFABFEDF}"/>
-    <hyperlink ref="K101" r:id="rId10" xr:uid="{CB9F02FA-6EA9-9C4C-920B-F2D76CDF62B3}"/>
-    <hyperlink ref="K103" r:id="rId11" xr:uid="{BFEA61B0-287C-A24F-B3EA-2752B56E4F37}"/>
+    <hyperlink ref="K80" r:id="rId1" xr:uid="{6F125911-13A5-A040-A9C2-2E5531CB51C2}"/>
+    <hyperlink ref="K83" r:id="rId2" xr:uid="{26D2A3F1-A9F3-B94B-80A4-1FC52B0A9381}"/>
+    <hyperlink ref="K85" r:id="rId3" xr:uid="{A8B08486-B742-1C49-9B5F-CC1014D0C0D3}"/>
+    <hyperlink ref="K87" r:id="rId4" xr:uid="{15570098-FC7D-E942-8E7A-0E4C2E03993E}"/>
+    <hyperlink ref="K89" r:id="rId5" xr:uid="{0848FAC6-20C0-0041-BF42-54D04239A8EC}"/>
+    <hyperlink ref="K91" r:id="rId6" xr:uid="{A2A0E688-1AC6-144C-9B19-B8200B9F19CC}"/>
+    <hyperlink ref="K93" r:id="rId7" xr:uid="{743ED0BB-638F-6B41-B6A5-65A68E4BBD97}"/>
+    <hyperlink ref="K95" r:id="rId8" xr:uid="{7F3686DB-0ED7-DB4C-8B37-C23A39CE0B2F}"/>
+    <hyperlink ref="K97" r:id="rId9" xr:uid="{444EB835-7F82-FA45-A2AD-647FDFABFEDF}"/>
+    <hyperlink ref="K99" r:id="rId10" xr:uid="{CB9F02FA-6EA9-9C4C-920B-F2D76CDF62B3}"/>
+    <hyperlink ref="K101" r:id="rId11" xr:uid="{BFEA61B0-287C-A24F-B3EA-2752B56E4F37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_diesel.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_diesel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9354253E-4F04-DF4A-9A82-3354B097C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E4F8C-5831-8A49-A602-EEC0CD1F8B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="60">
   <si>
     <t>Name:</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>EP.PMP.DESL.CD</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -637,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,10 +805,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -813,23 +825,11 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -839,13 +839,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -856,19 +865,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -878,32 +881,20 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>1990</v>
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>340.8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -920,10 +911,10 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>340.8</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -955,10 +946,10 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G17">
-        <v>511.2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -990,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G18">
         <v>511.2</v>
@@ -1025,10 +1016,10 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>511.2</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1060,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1095,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1130,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1165,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1200,7 +1191,7 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1235,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1270,7 +1261,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1305,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1340,10 +1331,10 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G28">
-        <v>383.4</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -1375,10 +1366,10 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G29">
-        <v>170.4</v>
+        <v>383.4</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -1410,10 +1401,10 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G30">
-        <v>85.2</v>
+        <v>170.4</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1445,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G31">
-        <v>127.8</v>
+        <v>85.2</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1480,10 +1471,10 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G32">
-        <v>724.2</v>
+        <v>127.8</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -1515,10 +1506,10 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G33">
-        <v>298.2</v>
+        <v>724.2</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -1550,10 +1541,10 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G34">
-        <v>255.6</v>
+        <v>298.2</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -1585,10 +1576,10 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G35">
-        <v>894.6</v>
+        <v>255.6</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -1620,10 +1611,10 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G36">
-        <v>1618.8</v>
+        <v>894.6</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1655,10 +1646,10 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G37">
-        <v>2385.6</v>
+        <v>1618.8</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1690,10 +1681,10 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G38">
-        <v>2811.6</v>
+        <v>2385.6</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -1725,10 +1716,10 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G39">
-        <v>2726.4</v>
+        <v>2811.6</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -1760,10 +1751,10 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G40">
-        <v>1022.4</v>
+        <v>2726.4</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -1795,10 +1786,10 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G41">
-        <v>1278</v>
+        <v>1022.4</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -1830,10 +1821,10 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G42">
-        <v>1192.8</v>
+        <v>1278</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -1865,10 +1856,10 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G43">
-        <v>1243.71</v>
+        <v>1192.8</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -1900,9 +1891,26 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>2019</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G44">
+        <v>1243.71</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1912,32 +1920,15 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>1990</v>
-      </c>
-      <c r="G45">
-        <v>233064.6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L45" t="s">
-        <v>41</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1953,10 +1944,10 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G46">
-        <v>197962.2</v>
+        <v>233064.6</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -1988,10 +1979,10 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G47">
-        <v>204820.8</v>
+        <v>197962.2</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -2023,10 +2014,10 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G48">
-        <v>157151.4</v>
+        <v>204820.8</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -2058,10 +2049,10 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G49">
-        <v>177769.8</v>
+        <v>157151.4</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -2093,10 +2084,10 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G50">
-        <v>150846.6</v>
+        <v>177769.8</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -2128,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G51">
-        <v>152678.39999999999</v>
+        <v>150846.6</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -2163,10 +2154,10 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G52">
-        <v>184159.8</v>
+        <v>152678.39999999999</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -2198,10 +2189,10 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G53">
-        <v>191018.4</v>
+        <v>184159.8</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -2233,10 +2224,10 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G54">
-        <v>150548.4</v>
+        <v>191018.4</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -2268,10 +2259,10 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G55">
-        <v>148120.20000000001</v>
+        <v>150548.4</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -2303,10 +2294,10 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G56">
-        <v>195150.6</v>
+        <v>148120.20000000001</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -2338,10 +2329,10 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G57">
-        <v>180709.2</v>
+        <v>195150.6</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -2373,10 +2364,10 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G58">
-        <v>171592.8</v>
+        <v>180709.2</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -2408,10 +2399,10 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G59">
-        <v>163200.6</v>
+        <v>171592.8</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -2443,10 +2434,10 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>185182.2</v>
+        <v>163200.6</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -2478,10 +2469,10 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G61">
-        <v>177216</v>
+        <v>185182.2</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -2513,10 +2504,10 @@
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G62">
-        <v>134445.6</v>
+        <v>177216</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -2548,10 +2539,10 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G63">
-        <v>169335</v>
+        <v>134445.6</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -2583,10 +2574,10 @@
         <v>17</v>
       </c>
       <c r="E64">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G64">
-        <v>194043</v>
+        <v>169335</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
@@ -2618,10 +2609,10 @@
         <v>17</v>
       </c>
       <c r="E65">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G65">
-        <v>149526</v>
+        <v>194043</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -2653,10 +2644,10 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G66">
-        <v>140622.6</v>
+        <v>149526</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -2688,10 +2679,10 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G67">
-        <v>180666.6</v>
+        <v>140622.6</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -2723,10 +2714,10 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G68">
-        <v>169122</v>
+        <v>180666.6</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -2758,10 +2749,10 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G69">
-        <v>125073.60000000001</v>
+        <v>169122</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -2793,10 +2784,10 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G70">
-        <v>173211.6</v>
+        <v>125073.60000000001</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -2828,10 +2819,10 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G71">
-        <v>162007.79999999999</v>
+        <v>173211.6</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -2863,10 +2854,10 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G72">
-        <v>162476.4</v>
+        <v>162007.79999999999</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -2898,10 +2889,10 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G73">
-        <v>123604.41</v>
+        <v>162476.4</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -2933,9 +2924,26 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <v>2019</v>
-      </c>
-      <c r="K74" s="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G74">
+        <v>123604.41</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2945,14 +2953,15 @@
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75">
-        <v>1990</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -2968,7 +2977,7 @@
         <v>17</v>
       </c>
       <c r="E76">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2985,7 +2994,7 @@
         <v>17</v>
       </c>
       <c r="E77">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3002,7 +3011,7 @@
         <v>17</v>
       </c>
       <c r="E78">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3019,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="E79">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3036,22 +3045,7 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>1995</v>
-      </c>
-      <c r="G80">
-        <v>1.01</v>
-      </c>
-      <c r="H80" t="s">
-        <v>45</v>
-      </c>
-      <c r="J80" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L80" t="s">
-        <v>57</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3068,7 +3062,22 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>1996</v>
+        <v>1995</v>
+      </c>
+      <c r="G81">
+        <v>1.01</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3085,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3102,22 +3111,7 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>1998</v>
-      </c>
-      <c r="G83">
-        <v>0.91</v>
-      </c>
-      <c r="H83" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L83" t="s">
-        <v>57</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3134,7 +3128,22 @@
         <v>17</v>
       </c>
       <c r="E84">
-        <v>1999</v>
+        <v>1998</v>
+      </c>
+      <c r="G84">
+        <v>0.91</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="J84" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3151,22 +3160,7 @@
         <v>17</v>
       </c>
       <c r="E85">
-        <v>2000</v>
-      </c>
-      <c r="G85">
-        <v>0.84</v>
-      </c>
-      <c r="H85" t="s">
-        <v>47</v>
-      </c>
-      <c r="J85" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L85" t="s">
-        <v>57</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3183,7 +3177,22 @@
         <v>17</v>
       </c>
       <c r="E86">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="G86">
+        <v>0.84</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L86" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3200,22 +3209,7 @@
         <v>17</v>
       </c>
       <c r="E87">
-        <v>2002</v>
-      </c>
-      <c r="G87">
-        <v>0.93</v>
-      </c>
-      <c r="H87" t="s">
-        <v>48</v>
-      </c>
-      <c r="J87" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L87" t="s">
-        <v>57</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3232,7 +3226,22 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <v>2003</v>
+        <v>2002</v>
+      </c>
+      <c r="G88">
+        <v>0.93</v>
+      </c>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" t="s">
+        <v>56</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3249,22 +3258,7 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>2004</v>
-      </c>
-      <c r="G89">
-        <v>1.37</v>
-      </c>
-      <c r="H89" t="s">
-        <v>49</v>
-      </c>
-      <c r="J89" t="s">
-        <v>56</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L89" t="s">
-        <v>57</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3281,7 +3275,22 @@
         <v>17</v>
       </c>
       <c r="E90">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="G90">
+        <v>1.37</v>
+      </c>
+      <c r="H90" t="s">
+        <v>49</v>
+      </c>
+      <c r="J90" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L90" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3298,22 +3307,7 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>2006</v>
-      </c>
-      <c r="G91">
-        <v>1.36</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J91" t="s">
-        <v>56</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L91" t="s">
-        <v>57</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3330,7 +3324,22 @@
         <v>17</v>
       </c>
       <c r="E92">
-        <v>2007</v>
+        <v>2006</v>
+      </c>
+      <c r="G92">
+        <v>1.36</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" t="s">
+        <v>56</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3347,22 +3356,7 @@
         <v>17</v>
       </c>
       <c r="E93">
-        <v>2008</v>
-      </c>
-      <c r="G93">
-        <v>1.52</v>
-      </c>
-      <c r="H93" t="s">
-        <v>51</v>
-      </c>
-      <c r="J93" t="s">
-        <v>56</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L93" t="s">
-        <v>57</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3379,7 +3373,22 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>2009</v>
+        <v>2008</v>
+      </c>
+      <c r="G94">
+        <v>1.52</v>
+      </c>
+      <c r="H94" t="s">
+        <v>51</v>
+      </c>
+      <c r="J94" t="s">
+        <v>56</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3396,22 +3405,7 @@
         <v>17</v>
       </c>
       <c r="E95">
-        <v>2010</v>
-      </c>
-      <c r="G95">
-        <v>1.77</v>
-      </c>
-      <c r="H95" t="s">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s">
-        <v>56</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L95" t="s">
-        <v>57</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3428,7 +3422,22 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G96">
+        <v>1.77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s">
+        <v>56</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,22 +3454,7 @@
         <v>17</v>
       </c>
       <c r="E97">
-        <v>2012</v>
-      </c>
-      <c r="G97">
-        <v>2.06</v>
-      </c>
-      <c r="H97" t="s">
-        <v>53</v>
-      </c>
-      <c r="J97" t="s">
-        <v>56</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L97" t="s">
-        <v>57</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,7 +3471,22 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="G98">
+        <v>2.06</v>
+      </c>
+      <c r="H98" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L98" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3494,22 +3503,7 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>2014</v>
-      </c>
-      <c r="G99">
-        <v>1.79</v>
-      </c>
-      <c r="H99" t="s">
-        <v>54</v>
-      </c>
-      <c r="J99" t="s">
-        <v>56</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L99" t="s">
-        <v>57</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3526,7 +3520,22 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G100">
+        <v>1.79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>54</v>
+      </c>
+      <c r="J100" t="s">
+        <v>56</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L100" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3543,22 +3552,7 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>2016</v>
-      </c>
-      <c r="G101">
-        <v>1.46</v>
-      </c>
-      <c r="H101" t="s">
-        <v>55</v>
-      </c>
-      <c r="J101" t="s">
-        <v>56</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L101" t="s">
-        <v>57</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3575,7 +3569,22 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G102">
+        <v>1.46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L102" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3592,7 +3601,7 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3609,24 +3618,41 @@
         <v>17</v>
       </c>
       <c r="E104">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K80" r:id="rId1" xr:uid="{6F125911-13A5-A040-A9C2-2E5531CB51C2}"/>
-    <hyperlink ref="K83" r:id="rId2" xr:uid="{26D2A3F1-A9F3-B94B-80A4-1FC52B0A9381}"/>
-    <hyperlink ref="K85" r:id="rId3" xr:uid="{A8B08486-B742-1C49-9B5F-CC1014D0C0D3}"/>
-    <hyperlink ref="K87" r:id="rId4" xr:uid="{15570098-FC7D-E942-8E7A-0E4C2E03993E}"/>
-    <hyperlink ref="K89" r:id="rId5" xr:uid="{0848FAC6-20C0-0041-BF42-54D04239A8EC}"/>
-    <hyperlink ref="K91" r:id="rId6" xr:uid="{A2A0E688-1AC6-144C-9B19-B8200B9F19CC}"/>
-    <hyperlink ref="K93" r:id="rId7" xr:uid="{743ED0BB-638F-6B41-B6A5-65A68E4BBD97}"/>
-    <hyperlink ref="K95" r:id="rId8" xr:uid="{7F3686DB-0ED7-DB4C-8B37-C23A39CE0B2F}"/>
-    <hyperlink ref="K97" r:id="rId9" xr:uid="{444EB835-7F82-FA45-A2AD-647FDFABFEDF}"/>
-    <hyperlink ref="K99" r:id="rId10" xr:uid="{CB9F02FA-6EA9-9C4C-920B-F2D76CDF62B3}"/>
-    <hyperlink ref="K101" r:id="rId11" xr:uid="{BFEA61B0-287C-A24F-B3EA-2752B56E4F37}"/>
+    <hyperlink ref="K81" r:id="rId1" xr:uid="{6F125911-13A5-A040-A9C2-2E5531CB51C2}"/>
+    <hyperlink ref="K84" r:id="rId2" xr:uid="{26D2A3F1-A9F3-B94B-80A4-1FC52B0A9381}"/>
+    <hyperlink ref="K86" r:id="rId3" xr:uid="{A8B08486-B742-1C49-9B5F-CC1014D0C0D3}"/>
+    <hyperlink ref="K88" r:id="rId4" xr:uid="{15570098-FC7D-E942-8E7A-0E4C2E03993E}"/>
+    <hyperlink ref="K90" r:id="rId5" xr:uid="{0848FAC6-20C0-0041-BF42-54D04239A8EC}"/>
+    <hyperlink ref="K92" r:id="rId6" xr:uid="{A2A0E688-1AC6-144C-9B19-B8200B9F19CC}"/>
+    <hyperlink ref="K94" r:id="rId7" xr:uid="{743ED0BB-638F-6B41-B6A5-65A68E4BBD97}"/>
+    <hyperlink ref="K96" r:id="rId8" xr:uid="{7F3686DB-0ED7-DB4C-8B37-C23A39CE0B2F}"/>
+    <hyperlink ref="K98" r:id="rId9" xr:uid="{444EB835-7F82-FA45-A2AD-647FDFABFEDF}"/>
+    <hyperlink ref="K100" r:id="rId10" xr:uid="{CB9F02FA-6EA9-9C4C-920B-F2D76CDF62B3}"/>
+    <hyperlink ref="K102" r:id="rId11" xr:uid="{BFEA61B0-287C-A24F-B3EA-2752B56E4F37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_diesel.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E4F8C-5831-8A49-A602-EEC0CD1F8B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03385CC4-58D7-2C42-B269-463B0922177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="50">
   <si>
     <t>Name:</t>
   </si>
@@ -167,59 +167,29 @@
     <t>trd_diesel</t>
   </si>
   <si>
-    <t>https://data.worldbank.org/indicator/EP.PMP.SGAS.CD</t>
-  </si>
-  <si>
-    <t>USD1995/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD1998/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2000/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2002/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2004/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2006/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2008/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2010/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2012/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2014/litre_diesel</t>
-  </si>
-  <si>
-    <t>USD2016/litre_diesel</t>
-  </si>
-  <si>
-    <t>World Bank. Pump price for diesel (US$ per liter)</t>
-  </si>
-  <si>
-    <t>EP.PMP.DESL.CD</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>CHF2010/litre_diesel</t>
+  </si>
+  <si>
+    <t>SFOE</t>
+  </si>
+  <si>
+    <t>https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/</t>
+  </si>
+  <si>
+    <t>Table 39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +215,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,10 +768,10 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -2979,6 +2942,21 @@
       <c r="E76">
         <v>1990</v>
       </c>
+      <c r="G76">
+        <v>0.88</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L76" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -2996,6 +2974,21 @@
       <c r="E77">
         <v>1991</v>
       </c>
+      <c r="G77">
+        <v>0.88</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L77" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -3013,6 +3006,21 @@
       <c r="E78">
         <v>1992</v>
       </c>
+      <c r="G78">
+        <v>0.83</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -3030,6 +3038,21 @@
       <c r="E79">
         <v>1993</v>
       </c>
+      <c r="G79" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -3047,6 +3070,21 @@
       <c r="E80">
         <v>1994</v>
       </c>
+      <c r="G80">
+        <v>0.98</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L80" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -3065,19 +3103,19 @@
         <v>1995</v>
       </c>
       <c r="G81">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="H81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J81" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L81" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3096,6 +3134,21 @@
       <c r="E82">
         <v>1996</v>
       </c>
+      <c r="G82">
+        <v>1.04</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -3113,6 +3166,21 @@
       <c r="E83">
         <v>1997</v>
       </c>
+      <c r="G83">
+        <v>1.07</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L83" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -3131,19 +3199,19 @@
         <v>1998</v>
       </c>
       <c r="G84">
-        <v>0.91</v>
+        <v>1.01</v>
       </c>
       <c r="H84" t="s">
         <v>46</v>
       </c>
       <c r="J84" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L84" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3162,6 +3230,21 @@
       <c r="E85">
         <v>1999</v>
       </c>
+      <c r="G85">
+        <v>1.07</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="J85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -3180,19 +3263,19 @@
         <v>2000</v>
       </c>
       <c r="G86">
-        <v>0.84</v>
+        <v>1.25</v>
       </c>
       <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86" t="s">
         <v>47</v>
       </c>
-      <c r="J86" t="s">
-        <v>56</v>
-      </c>
       <c r="K86" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L86" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3211,6 +3294,21 @@
       <c r="E87">
         <v>2001</v>
       </c>
+      <c r="G87">
+        <v>1.2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L87" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -3229,19 +3327,19 @@
         <v>2002</v>
       </c>
       <c r="G88">
-        <v>0.93</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="J88" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J88" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L88" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3260,6 +3358,21 @@
       <c r="E89">
         <v>2003</v>
       </c>
+      <c r="G89">
+        <v>1.19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="J89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L89" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -3278,19 +3391,19 @@
         <v>2004</v>
       </c>
       <c r="G90">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L90" t="s">
         <v>49</v>
-      </c>
-      <c r="J90" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L90" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3309,6 +3422,21 @@
       <c r="E91">
         <v>2005</v>
       </c>
+      <c r="G91">
+        <v>1.45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="J91" t="s">
+        <v>47</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L91" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -3327,19 +3455,19 @@
         <v>2006</v>
       </c>
       <c r="G92">
-        <v>1.36</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>50</v>
+        <v>1.5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
       </c>
       <c r="J92" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L92" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3358,6 +3486,21 @@
       <c r="E93">
         <v>2007</v>
       </c>
+      <c r="G93">
+        <v>1.48</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L93" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -3376,19 +3519,19 @@
         <v>2008</v>
       </c>
       <c r="G94">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J94" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L94" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3407,6 +3550,21 @@
       <c r="E95">
         <v>2009</v>
       </c>
+      <c r="G95">
+        <v>1.33</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="J95" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L95" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -3425,19 +3583,19 @@
         <v>2010</v>
       </c>
       <c r="G96">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="H96" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J96" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L96" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3456,6 +3614,21 @@
       <c r="E97">
         <v>2011</v>
       </c>
+      <c r="G97">
+        <v>1.54</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -3474,19 +3647,19 @@
         <v>2012</v>
       </c>
       <c r="G98">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="H98" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J98" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L98" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3505,6 +3678,21 @@
       <c r="E99">
         <v>2013</v>
       </c>
+      <c r="G99">
+        <v>1.57</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L99" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -3523,19 +3711,19 @@
         <v>2014</v>
       </c>
       <c r="G100">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="H100" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J100" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L100" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3554,6 +3742,21 @@
       <c r="E101">
         <v>2015</v>
       </c>
+      <c r="G101">
+        <v>1.34</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L101" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -3572,19 +3775,19 @@
         <v>2016</v>
       </c>
       <c r="G102">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="H102" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J102" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L102" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3603,6 +3806,21 @@
       <c r="E103">
         <v>2017</v>
       </c>
+      <c r="G103">
+        <v>1.33</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="J103" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L103" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -3620,6 +3838,21 @@
       <c r="E104">
         <v>2018</v>
       </c>
+      <c r="G104">
+        <v>1.46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L104" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -3637,22 +3870,30 @@
       <c r="E105">
         <v>2019</v>
       </c>
+      <c r="G105">
+        <v>1.42</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K106" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K81" r:id="rId1" xr:uid="{6F125911-13A5-A040-A9C2-2E5531CB51C2}"/>
-    <hyperlink ref="K84" r:id="rId2" xr:uid="{26D2A3F1-A9F3-B94B-80A4-1FC52B0A9381}"/>
-    <hyperlink ref="K86" r:id="rId3" xr:uid="{A8B08486-B742-1C49-9B5F-CC1014D0C0D3}"/>
-    <hyperlink ref="K88" r:id="rId4" xr:uid="{15570098-FC7D-E942-8E7A-0E4C2E03993E}"/>
-    <hyperlink ref="K90" r:id="rId5" xr:uid="{0848FAC6-20C0-0041-BF42-54D04239A8EC}"/>
-    <hyperlink ref="K92" r:id="rId6" xr:uid="{A2A0E688-1AC6-144C-9B19-B8200B9F19CC}"/>
-    <hyperlink ref="K94" r:id="rId7" xr:uid="{743ED0BB-638F-6B41-B6A5-65A68E4BBD97}"/>
-    <hyperlink ref="K96" r:id="rId8" xr:uid="{7F3686DB-0ED7-DB4C-8B37-C23A39CE0B2F}"/>
-    <hyperlink ref="K98" r:id="rId9" xr:uid="{444EB835-7F82-FA45-A2AD-647FDFABFEDF}"/>
-    <hyperlink ref="K100" r:id="rId10" xr:uid="{CB9F02FA-6EA9-9C4C-920B-F2D76CDF62B3}"/>
-    <hyperlink ref="K102" r:id="rId11" xr:uid="{BFEA61B0-287C-A24F-B3EA-2752B56E4F37}"/>
+    <hyperlink ref="K74" r:id="rId1" xr:uid="{349A6BA3-7B15-B646-937E-ADD6B67F0E06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
